--- a/docs/boms.xlsx
+++ b/docs/boms.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="82">
   <si>
     <t xml:space="preserve">Item</t>
   </si>
@@ -139,15 +139,21 @@
     <t xml:space="preserve">Polarising filter (lens)</t>
   </si>
   <si>
+    <t xml:space="preserve">MIDOPT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PRO32-27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LED Ring</t>
+  </si>
+  <si>
     <t xml:space="preserve">ISCON</t>
   </si>
   <si>
     <t xml:space="preserve">IRLP - RING LIGHT POWER (RED)</t>
   </si>
   <si>
-    <t xml:space="preserve">LED Ring</t>
-  </si>
-  <si>
     <t xml:space="preserve">https://iscon.pl/projects/irlp-ring-light-power/</t>
   </si>
   <si>
@@ -157,15 +163,24 @@
     <t xml:space="preserve">LED Ring cable</t>
   </si>
   <si>
-    <t xml:space="preserve">Conec</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M12 4pin angle</t>
+    <t xml:space="preserve">M12 4pin 0.3m</t>
   </si>
   <si>
     <t xml:space="preserve">Can be any other M12 4pin cable</t>
   </si>
   <si>
+    <t xml:space="preserve">https://www.tme.eu/pl/details/1210120604l2002-03/kable-do-czujnikow/lutronic/1210-1206-04-l2-002-0-3m/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Camera cable</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M12 4pin 2m</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.tme.eu/pl/details/1210120504301-2m/kable-do-czujnikow/lutronic/1210-1205-04-301-2m/</t>
+  </si>
+  <si>
     <t xml:space="preserve">cpu</t>
   </si>
   <si>
@@ -184,6 +199,15 @@
     <t xml:space="preserve">switch</t>
   </si>
   <si>
+    <t xml:space="preserve">MURR ELEKTRONIK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MURR-58810</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Other 4-5 port switch 24v</t>
+  </si>
+  <si>
     <t xml:space="preserve">https://www.tme.eu/pl/details/murr-58810/sieci-przemyslowe/murr-elektronik/58810/</t>
   </si>
   <si>
@@ -197,6 +221,51 @@
   </si>
   <si>
     <t xml:space="preserve">https://www.conrad.pl/p/zasilacz-na-szyne-din-weidmueller-pro-eco-240w-24v-10a-24-vdc-10-a-240-w-1-x-1197708?&amp;gclsrc=aw.ds&amp;vat=true</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m12 male connector</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amphenol</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M12T-04PMMS-SF8B15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Can be other 4 pin m12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.tme.eu/pl/details/m12t-04pmms-sf8b15/wtyki-i-gniazda-m12/amphenol/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m12 female connector</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M12T-04PFFS-SF8B15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.tme.eu/pl/details/m12t-04pffs-sf8b15/wtyki-i-gniazda-m12/amphenol/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">usb connector</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Neutrik</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NTR-NAUSBW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">can be other</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.tme.eu/pl/details/ntr-nausbw/zlacza-usb-i-ieee1394/neutrik/nausb-w/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UV filter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://allegro.pl/oferta/2szt-filtr-ir-650nm-m12-m14-kamera-cctv-plytkowa-10805617385</t>
   </si>
 </sst>
 </file>
@@ -206,7 +275,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -235,11 +304,6 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -283,7 +347,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -293,10 +357,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -317,13 +377,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I16"/>
+  <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E7" activeCellId="0" sqref="E7"/>
+      <selection pane="topLeft" activeCell="I21" activeCellId="0" sqref="I21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.96"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.67"/>
@@ -526,75 +586,84 @@
       <c r="D10" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="E10" s="0" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
         <v>41</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>43</v>
       </c>
       <c r="D11" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="E11" s="0" t="n">
+        <v>2</v>
+      </c>
       <c r="G11" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="D12" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="E12" s="0" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="B13" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D13" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="E13" s="0" t="n">
+        <v>7</v>
+      </c>
       <c r="H13" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="D14" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E14" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="H14" s="0" t="s">
         <v>48</v>
       </c>
-      <c r="B14" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="C14" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="D14" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E14" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="F14" s="0" t="n">
-        <v>35</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="H14" s="0" t="s">
+      <c r="I14" s="1" t="s">
         <v>52</v>
       </c>
     </row>
@@ -602,6 +671,12 @@
       <c r="A15" s="0" t="s">
         <v>53</v>
       </c>
+      <c r="B15" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="C15" s="0" t="s">
+        <v>55</v>
+      </c>
       <c r="D15" s="0" t="n">
         <v>1</v>
       </c>
@@ -609,30 +684,136 @@
         <v>6</v>
       </c>
       <c r="F15" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="I15" s="1" t="s">
-        <v>54</v>
+        <v>35</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H15" s="0" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>56</v>
+        <v>58</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>59</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="D16" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="E16" s="0" t="n">
+        <v>6</v>
+      </c>
       <c r="F16" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="H16" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C17" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="D17" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F17" s="0" t="n">
         <v>150</v>
       </c>
-      <c r="I16" s="1" t="s">
-        <v>58</v>
+      <c r="I17" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="C18" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="D18" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E18" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="H18" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="C19" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="D19" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E19" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="H19" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="B20" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="C20" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="D20" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E20" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="H20" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -646,9 +827,15 @@
     <hyperlink ref="I6" r:id="rId7" display="https://botland.com.pl/obiektywy-do-kamer-do-raspberry-pi/17065-obiektyw-szerokokatny-cs-mount-6mm-reczna-regulacja-ostrosci-do-kamery-raspberry-pi-arducam-ln037.html"/>
     <hyperlink ref="G11" r:id="rId8" display="https://iscon.pl/projects/irlp-ring-light-power/"/>
     <hyperlink ref="I11" r:id="rId9" display="https://iscon.pl/projects/irlp-ring-light-power/"/>
-    <hyperlink ref="G14" r:id="rId10" location="technical-references" display="https://os.mbed.com/platforms/ST-Nucleo-F746ZG/#technical-references"/>
-    <hyperlink ref="I15" r:id="rId11" display="https://www.tme.eu/pl/details/murr-58810/sieci-przemyslowe/murr-elektronik/58810/"/>
-    <hyperlink ref="I16" r:id="rId12" display="https://www.conrad.pl/p/zasilacz-na-szyne-din-weidmueller-pro-eco-240w-24v-10a-24-vdc-10-a-240-w-1-x-1197708?&amp;gclsrc=aw.ds&amp;vat=true"/>
+    <hyperlink ref="I13" r:id="rId10" display="https://www.tme.eu/pl/details/1210120604l2002-03/kable-do-czujnikow/lutronic/1210-1206-04-l2-002-0-3m/"/>
+    <hyperlink ref="I14" r:id="rId11" display="https://www.tme.eu/pl/details/1210120504301-2m/kable-do-czujnikow/lutronic/1210-1205-04-301-2m/"/>
+    <hyperlink ref="G15" r:id="rId12" location="technical-references" display="https://os.mbed.com/platforms/ST-Nucleo-F746ZG/#technical-references"/>
+    <hyperlink ref="I16" r:id="rId13" display="https://www.tme.eu/pl/details/murr-58810/sieci-przemyslowe/murr-elektronik/58810/"/>
+    <hyperlink ref="I17" r:id="rId14" display="https://www.conrad.pl/p/zasilacz-na-szyne-din-weidmueller-pro-eco-240w-24v-10a-24-vdc-10-a-240-w-1-x-1197708?&amp;gclsrc=aw.ds&amp;vat=true"/>
+    <hyperlink ref="I18" r:id="rId15" display="https://www.tme.eu/pl/details/m12t-04pmms-sf8b15/wtyki-i-gniazda-m12/amphenol/"/>
+    <hyperlink ref="I19" r:id="rId16" display="https://www.tme.eu/pl/details/m12t-04pffs-sf8b15/wtyki-i-gniazda-m12/amphenol/"/>
+    <hyperlink ref="I20" r:id="rId17" display="https://www.tme.eu/pl/details/ntr-nausbw/zlacza-usb-i-ieee1394/neutrik/nausb-w/"/>
+    <hyperlink ref="I21" r:id="rId18" display="https://allegro.pl/oferta/2szt-filtr-ir-650nm-m12-m14-kamera-cctv-plytkowa-10805617385"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/docs/boms.xlsx
+++ b/docs/boms.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="86">
   <si>
     <t xml:space="preserve">Item</t>
   </si>
@@ -184,16 +184,19 @@
     <t xml:space="preserve">cpu</t>
   </si>
   <si>
-    <t xml:space="preserve">STMicroelectronics </t>
-  </si>
-  <si>
-    <t xml:space="preserve">NUCLEO-F746ZG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://os.mbed.com/platforms/ST-Nucleo-F746ZG/#technical-references</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Exact model</t>
+    <t xml:space="preserve">Olimex</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STM32-E407 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">for velux 1 per table</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.olimex.com/Products/ARM/ST/STM32-E407/open-source-hardware</t>
   </si>
   <si>
     <t xml:space="preserve">switch</t>
@@ -266,6 +269,15 @@
   </si>
   <si>
     <t xml:space="preserve">https://allegro.pl/oferta/2szt-filtr-ir-650nm-m12-m14-kamera-cctv-plytkowa-10805617385</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AC socket</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SCHURTER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.tme.eu/pl/details/4304.6015/zlacza-iec-60320/schurter/</t>
   </si>
 </sst>
 </file>
@@ -377,13 +389,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I21"/>
+  <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I21" activeCellId="0" sqref="I21"/>
+      <selection pane="topLeft" activeCell="I22" activeCellId="0" sqref="I22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.96"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.67"/>
@@ -677,31 +689,32 @@
       <c r="C15" s="0" t="s">
         <v>55</v>
       </c>
-      <c r="D15" s="0" t="n">
-        <v>1</v>
+      <c r="D15" s="0" t="s">
+        <v>56</v>
       </c>
       <c r="E15" s="0" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F15" s="0" t="n">
-        <v>35</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>56</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="G15" s="1"/>
       <c r="H15" s="0" t="s">
         <v>57</v>
       </c>
+      <c r="I15" s="1" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D16" s="0" t="n">
         <v>1</v>
@@ -713,21 +726,21 @@
         <v>100</v>
       </c>
       <c r="H16" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D17" s="0" t="n">
         <v>1</v>
@@ -736,18 +749,18 @@
         <v>150</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D18" s="0" t="n">
         <v>2</v>
@@ -756,21 +769,21 @@
         <v>14</v>
       </c>
       <c r="H18" s="0" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D19" s="0" t="n">
         <v>2</v>
@@ -779,21 +792,21 @@
         <v>14</v>
       </c>
       <c r="H19" s="0" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D20" s="0" t="n">
         <v>2</v>
@@ -802,18 +815,38 @@
         <v>14</v>
       </c>
       <c r="H20" s="0" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
+      </c>
+      <c r="D21" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="B22" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="D22" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E22" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -829,13 +862,14 @@
     <hyperlink ref="I11" r:id="rId9" display="https://iscon.pl/projects/irlp-ring-light-power/"/>
     <hyperlink ref="I13" r:id="rId10" display="https://www.tme.eu/pl/details/1210120604l2002-03/kable-do-czujnikow/lutronic/1210-1206-04-l2-002-0-3m/"/>
     <hyperlink ref="I14" r:id="rId11" display="https://www.tme.eu/pl/details/1210120504301-2m/kable-do-czujnikow/lutronic/1210-1205-04-301-2m/"/>
-    <hyperlink ref="G15" r:id="rId12" location="technical-references" display="https://os.mbed.com/platforms/ST-Nucleo-F746ZG/#technical-references"/>
+    <hyperlink ref="I15" r:id="rId12" display="https://www.olimex.com/Products/ARM/ST/STM32-E407/open-source-hardware"/>
     <hyperlink ref="I16" r:id="rId13" display="https://www.tme.eu/pl/details/murr-58810/sieci-przemyslowe/murr-elektronik/58810/"/>
     <hyperlink ref="I17" r:id="rId14" display="https://www.conrad.pl/p/zasilacz-na-szyne-din-weidmueller-pro-eco-240w-24v-10a-24-vdc-10-a-240-w-1-x-1197708?&amp;gclsrc=aw.ds&amp;vat=true"/>
     <hyperlink ref="I18" r:id="rId15" display="https://www.tme.eu/pl/details/m12t-04pmms-sf8b15/wtyki-i-gniazda-m12/amphenol/"/>
     <hyperlink ref="I19" r:id="rId16" display="https://www.tme.eu/pl/details/m12t-04pffs-sf8b15/wtyki-i-gniazda-m12/amphenol/"/>
     <hyperlink ref="I20" r:id="rId17" display="https://www.tme.eu/pl/details/ntr-nausbw/zlacza-usb-i-ieee1394/neutrik/nausb-w/"/>
     <hyperlink ref="I21" r:id="rId18" display="https://allegro.pl/oferta/2szt-filtr-ir-650nm-m12-m14-kamera-cctv-plytkowa-10805617385"/>
+    <hyperlink ref="I22" r:id="rId19" display="https://www.tme.eu/pl/details/4304.6015/zlacza-iec-60320/schurter/"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/docs/boms.xlsx
+++ b/docs/boms.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="84">
   <si>
     <t xml:space="preserve">Item</t>
   </si>
@@ -106,25 +106,19 @@
     <t xml:space="preserve">camera lens</t>
   </si>
   <si>
-    <t xml:space="preserve">Arducam</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LN037 C-mount 6mm</t>
+    <t xml:space="preserve">RICOH</t>
   </si>
   <si>
     <t xml:space="preserve">Can be other supplier</t>
   </si>
   <si>
-    <t xml:space="preserve">https://botland.com.pl/obiektywy-do-kamer-do-raspberry-pi/17065-obiektyw-szerokokatny-cs-mount-6mm-reczna-regulacja-ostrosci-do-kamery-raspberry-pi-arducam-ln037.html</t>
+    <t xml:space="preserve">https://www.vision-dimension.com/en/lenses/ccs-mount-lenses/monofocal-lenses/pentax-c-mount-lens-fl-hc0612a-vg/264</t>
   </si>
   <si>
     <t xml:space="preserve">lens adapter</t>
   </si>
   <si>
-    <t xml:space="preserve">Custom made</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3d printed</t>
+    <t xml:space="preserve">https://www.vision-dimension.com/en/lenses/lens-accessories/extension-rings/zwischenring-5mm-c-cs-mount-adapter-hq/376</t>
   </si>
   <si>
     <t xml:space="preserve">lens spacer</t>
@@ -392,10 +386,10 @@
   <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I22" activeCellId="0" sqref="I22"/>
+      <selection pane="topLeft" activeCell="I8" activeCellId="0" sqref="I8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.96"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.67"/>
@@ -536,42 +530,45 @@
       <c r="B6" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="C6" s="0" t="s">
+      <c r="D6" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="F6" s="0" t="n">
+        <v>156</v>
+      </c>
+      <c r="H6" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="D6" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F6" s="0" t="n">
+      <c r="I6" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="H6" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E7" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="F7" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="I7" s="0" t="s">
         <v>32</v>
-      </c>
-      <c r="B7" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="C7" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="D7" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D8" s="0" t="n">
         <v>1</v>
@@ -579,7 +576,7 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D9" s="0" t="n">
         <v>1</v>
@@ -587,13 +584,13 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" s="0" t="s">
         <v>38</v>
-      </c>
-      <c r="B10" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="C10" s="0" t="s">
-        <v>40</v>
       </c>
       <c r="D10" s="0" t="n">
         <v>1</v>
@@ -604,13 +601,13 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" s="0" t="s">
         <v>41</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C11" s="0" t="s">
-        <v>43</v>
       </c>
       <c r="D11" s="0" t="n">
         <v>1</v>
@@ -619,18 +616,18 @@
         <v>2</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D12" s="0" t="n">
         <v>1</v>
@@ -641,10 +638,10 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D13" s="0" t="n">
         <v>1</v>
@@ -653,18 +650,18 @@
         <v>7</v>
       </c>
       <c r="H13" s="0" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D14" s="0" t="n">
         <v>1</v>
@@ -673,24 +670,24 @@
         <v>7</v>
       </c>
       <c r="H14" s="0" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="C15" s="0" t="s">
         <v>53</v>
       </c>
-      <c r="B15" s="0" t="s">
+      <c r="D15" s="0" t="s">
         <v>54</v>
-      </c>
-      <c r="C15" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="D15" s="0" t="s">
-        <v>56</v>
       </c>
       <c r="E15" s="0" t="n">
         <v>3</v>
@@ -700,21 +697,21 @@
       </c>
       <c r="G15" s="1"/>
       <c r="H15" s="0" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="C16" s="0" t="s">
         <v>59</v>
-      </c>
-      <c r="B16" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="C16" s="0" t="s">
-        <v>61</v>
       </c>
       <c r="D16" s="0" t="n">
         <v>1</v>
@@ -726,21 +723,21 @@
         <v>100</v>
       </c>
       <c r="H16" s="0" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C17" s="0" t="s">
         <v>64</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="C17" s="0" t="s">
-        <v>66</v>
       </c>
       <c r="D17" s="0" t="n">
         <v>1</v>
@@ -749,18 +746,18 @@
         <v>150</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="C18" s="0" t="s">
         <v>68</v>
-      </c>
-      <c r="B18" s="0" t="s">
-        <v>69</v>
-      </c>
-      <c r="C18" s="0" t="s">
-        <v>70</v>
       </c>
       <c r="D18" s="0" t="n">
         <v>2</v>
@@ -769,21 +766,21 @@
         <v>14</v>
       </c>
       <c r="H18" s="0" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D19" s="0" t="n">
         <v>2</v>
@@ -792,21 +789,21 @@
         <v>14</v>
       </c>
       <c r="H19" s="0" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="B20" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="C20" s="0" t="s">
         <v>76</v>
-      </c>
-      <c r="B20" s="0" t="s">
-        <v>77</v>
-      </c>
-      <c r="C20" s="0" t="s">
-        <v>78</v>
       </c>
       <c r="D20" s="0" t="n">
         <v>2</v>
@@ -815,29 +812,29 @@
         <v>14</v>
       </c>
       <c r="H20" s="0" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D21" s="0" t="n">
         <v>1</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D22" s="0" t="n">
         <v>1</v>
@@ -846,7 +843,7 @@
         <v>7</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -857,19 +854,18 @@
     <hyperlink ref="I4" r:id="rId4" display="https://kamami.pl/kamery/580913-openmv-cam-h7-plus-modul-z-kamera-ov5640-sen-16989.html?search_query=openmv&amp;results=6"/>
     <hyperlink ref="G5" r:id="rId5" display="https://www.lantronix.com/products/xport/"/>
     <hyperlink ref="I5" r:id="rId6" display="https://www.soselectronic.pl/products/lantronix/xp1001000-05r-134244"/>
-    <hyperlink ref="I6" r:id="rId7" display="https://botland.com.pl/obiektywy-do-kamer-do-raspberry-pi/17065-obiektyw-szerokokatny-cs-mount-6mm-reczna-regulacja-ostrosci-do-kamery-raspberry-pi-arducam-ln037.html"/>
-    <hyperlink ref="G11" r:id="rId8" display="https://iscon.pl/projects/irlp-ring-light-power/"/>
-    <hyperlink ref="I11" r:id="rId9" display="https://iscon.pl/projects/irlp-ring-light-power/"/>
-    <hyperlink ref="I13" r:id="rId10" display="https://www.tme.eu/pl/details/1210120604l2002-03/kable-do-czujnikow/lutronic/1210-1206-04-l2-002-0-3m/"/>
-    <hyperlink ref="I14" r:id="rId11" display="https://www.tme.eu/pl/details/1210120504301-2m/kable-do-czujnikow/lutronic/1210-1205-04-301-2m/"/>
-    <hyperlink ref="I15" r:id="rId12" display="https://www.olimex.com/Products/ARM/ST/STM32-E407/open-source-hardware"/>
-    <hyperlink ref="I16" r:id="rId13" display="https://www.tme.eu/pl/details/murr-58810/sieci-przemyslowe/murr-elektronik/58810/"/>
-    <hyperlink ref="I17" r:id="rId14" display="https://www.conrad.pl/p/zasilacz-na-szyne-din-weidmueller-pro-eco-240w-24v-10a-24-vdc-10-a-240-w-1-x-1197708?&amp;gclsrc=aw.ds&amp;vat=true"/>
-    <hyperlink ref="I18" r:id="rId15" display="https://www.tme.eu/pl/details/m12t-04pmms-sf8b15/wtyki-i-gniazda-m12/amphenol/"/>
-    <hyperlink ref="I19" r:id="rId16" display="https://www.tme.eu/pl/details/m12t-04pffs-sf8b15/wtyki-i-gniazda-m12/amphenol/"/>
-    <hyperlink ref="I20" r:id="rId17" display="https://www.tme.eu/pl/details/ntr-nausbw/zlacza-usb-i-ieee1394/neutrik/nausb-w/"/>
-    <hyperlink ref="I21" r:id="rId18" display="https://allegro.pl/oferta/2szt-filtr-ir-650nm-m12-m14-kamera-cctv-plytkowa-10805617385"/>
-    <hyperlink ref="I22" r:id="rId19" display="https://www.tme.eu/pl/details/4304.6015/zlacza-iec-60320/schurter/"/>
+    <hyperlink ref="G11" r:id="rId7" display="https://iscon.pl/projects/irlp-ring-light-power/"/>
+    <hyperlink ref="I11" r:id="rId8" display="https://iscon.pl/projects/irlp-ring-light-power/"/>
+    <hyperlink ref="I13" r:id="rId9" display="https://www.tme.eu/pl/details/1210120604l2002-03/kable-do-czujnikow/lutronic/1210-1206-04-l2-002-0-3m/"/>
+    <hyperlink ref="I14" r:id="rId10" display="https://www.tme.eu/pl/details/1210120504301-2m/kable-do-czujnikow/lutronic/1210-1205-04-301-2m/"/>
+    <hyperlink ref="I15" r:id="rId11" display="https://www.olimex.com/Products/ARM/ST/STM32-E407/open-source-hardware"/>
+    <hyperlink ref="I16" r:id="rId12" display="https://www.tme.eu/pl/details/murr-58810/sieci-przemyslowe/murr-elektronik/58810/"/>
+    <hyperlink ref="I17" r:id="rId13" display="https://www.conrad.pl/p/zasilacz-na-szyne-din-weidmueller-pro-eco-240w-24v-10a-24-vdc-10-a-240-w-1-x-1197708?&amp;gclsrc=aw.ds&amp;vat=true"/>
+    <hyperlink ref="I18" r:id="rId14" display="https://www.tme.eu/pl/details/m12t-04pmms-sf8b15/wtyki-i-gniazda-m12/amphenol/"/>
+    <hyperlink ref="I19" r:id="rId15" display="https://www.tme.eu/pl/details/m12t-04pffs-sf8b15/wtyki-i-gniazda-m12/amphenol/"/>
+    <hyperlink ref="I20" r:id="rId16" display="https://www.tme.eu/pl/details/ntr-nausbw/zlacza-usb-i-ieee1394/neutrik/nausb-w/"/>
+    <hyperlink ref="I21" r:id="rId17" display="https://allegro.pl/oferta/2szt-filtr-ir-650nm-m12-m14-kamera-cctv-plytkowa-10805617385"/>
+    <hyperlink ref="I22" r:id="rId18" display="https://www.tme.eu/pl/details/4304.6015/zlacza-iec-60320/schurter/"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
